--- a/Somalia-COVID-impact/Results_COVID_Malaria_National.xlsx
+++ b/Somalia-COVID-impact/Results_COVID_Malaria_National.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="National" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -491,19 +491,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>46.99</v>
+        <v>37.22</v>
       </c>
       <c r="C3" t="n">
-        <v>26.25</v>
+        <v>29</v>
       </c>
       <c r="D3" t="n">
-        <v>21.82</v>
+        <v>22.71</v>
       </c>
       <c r="E3" t="n">
-        <v>40.3</v>
+        <v>37.82</v>
       </c>
       <c r="F3" t="n">
-        <v>9.76</v>
+        <v>13.52</v>
       </c>
     </row>
     <row r="4">
@@ -511,19 +511,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>14.42</v>
+        <v>10.6</v>
       </c>
       <c r="C4" t="n">
-        <v>25.02</v>
+        <v>27.24</v>
       </c>
       <c r="D4" t="n">
-        <v>30.99</v>
+        <v>33.73</v>
       </c>
       <c r="E4" t="n">
-        <v>29.62</v>
+        <v>28.97</v>
       </c>
       <c r="F4" t="n">
-        <v>46.13</v>
+        <v>45.81</v>
       </c>
     </row>
     <row r="5">
@@ -531,19 +531,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>8.380000000000001</v>
+        <v>7.47</v>
       </c>
       <c r="C5" t="n">
-        <v>27.37</v>
+        <v>27.13</v>
       </c>
       <c r="D5" t="n">
-        <v>39.95</v>
+        <v>42.35</v>
       </c>
       <c r="E5" t="n">
-        <v>26.16</v>
+        <v>27.6</v>
       </c>
       <c r="F5" t="n">
-        <v>50.14</v>
+        <v>48.13</v>
       </c>
     </row>
     <row r="6">
@@ -551,19 +551,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>8.449999999999999</v>
+        <v>7.79</v>
       </c>
       <c r="C6" t="n">
-        <v>24.95</v>
+        <v>24.46</v>
       </c>
       <c r="D6" t="n">
-        <v>45.72</v>
+        <v>47.08</v>
       </c>
       <c r="E6" t="n">
-        <v>26.85</v>
+        <v>28.83</v>
       </c>
       <c r="F6" t="n">
-        <v>50.32</v>
+        <v>47.67</v>
       </c>
     </row>
     <row r="7">
@@ -571,19 +571,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>8.82</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>22.92</v>
+        <v>22.75</v>
       </c>
       <c r="D7" t="n">
-        <v>48.16</v>
+        <v>48.9</v>
       </c>
       <c r="E7" t="n">
-        <v>28.14</v>
+        <v>30.08</v>
       </c>
       <c r="F7" t="n">
-        <v>49.44</v>
+        <v>46.8</v>
       </c>
     </row>
     <row r="8">
@@ -591,19 +591,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>9.050000000000001</v>
+        <v>8.27</v>
       </c>
       <c r="C8" t="n">
-        <v>21.99</v>
+        <v>22.05</v>
       </c>
       <c r="D8" t="n">
-        <v>48.92</v>
+        <v>49.43</v>
       </c>
       <c r="E8" t="n">
-        <v>28.96</v>
+        <v>30.71</v>
       </c>
       <c r="F8" t="n">
-        <v>48.85</v>
+        <v>46.23</v>
       </c>
     </row>
     <row r="9">
@@ -611,19 +611,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>9.140000000000001</v>
+        <v>8.34</v>
       </c>
       <c r="C9" t="n">
-        <v>21.67</v>
+        <v>21.84</v>
       </c>
       <c r="D9" t="n">
-        <v>49.08</v>
+        <v>49.52</v>
       </c>
       <c r="E9" t="n">
-        <v>29.26</v>
+        <v>30.97</v>
       </c>
       <c r="F9" t="n">
-        <v>48.52</v>
+        <v>46.07</v>
       </c>
     </row>
     <row r="10">
@@ -631,19 +631,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>9.16</v>
+        <v>8.35</v>
       </c>
       <c r="C10" t="n">
-        <v>21.59</v>
+        <v>21.79</v>
       </c>
       <c r="D10" t="n">
-        <v>49.08</v>
+        <v>49.51</v>
       </c>
       <c r="E10" t="n">
-        <v>29.34</v>
+        <v>31.01</v>
       </c>
       <c r="F10" t="n">
-        <v>48.38</v>
+        <v>45.96</v>
       </c>
     </row>
     <row r="11">
@@ -651,19 +651,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>9.18</v>
+        <v>8.35</v>
       </c>
       <c r="C11" t="n">
-        <v>21.59</v>
+        <v>21.79</v>
       </c>
       <c r="D11" t="n">
-        <v>49.05</v>
+        <v>49.49</v>
       </c>
       <c r="E11" t="n">
-        <v>29.39</v>
+        <v>31.02</v>
       </c>
       <c r="F11" t="n">
-        <v>48.43</v>
+        <v>45.95</v>
       </c>
     </row>
     <row r="12">
@@ -671,19 +671,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>9.17</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>21.6</v>
+        <v>21.79</v>
       </c>
       <c r="D12" t="n">
-        <v>49.04</v>
+        <v>49.48</v>
       </c>
       <c r="E12" t="n">
-        <v>29.37</v>
+        <v>31.03</v>
       </c>
       <c r="F12" t="n">
-        <v>48.39</v>
+        <v>45.98</v>
       </c>
     </row>
     <row r="13">
@@ -691,19 +691,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>9.16</v>
+        <v>8.34</v>
       </c>
       <c r="C13" t="n">
-        <v>21.6</v>
+        <v>21.79</v>
       </c>
       <c r="D13" t="n">
-        <v>49.04</v>
+        <v>49.48</v>
       </c>
       <c r="E13" t="n">
-        <v>29.36</v>
+        <v>31</v>
       </c>
       <c r="F13" t="n">
-        <v>48.36</v>
+        <v>45.93</v>
       </c>
     </row>
     <row r="14">
@@ -711,19 +711,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>9.17</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>21.61</v>
+        <v>21.8</v>
       </c>
       <c r="D14" t="n">
-        <v>49.03</v>
+        <v>49.47</v>
       </c>
       <c r="E14" t="n">
-        <v>29.38</v>
+        <v>31.02</v>
       </c>
       <c r="F14" t="n">
-        <v>48.43</v>
+        <v>45.98</v>
       </c>
     </row>
     <row r="15">
@@ -731,19 +731,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>9.17</v>
+        <v>8.35</v>
       </c>
       <c r="C15" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="D15" t="n">
-        <v>49.03</v>
+        <v>49.47</v>
       </c>
       <c r="E15" t="n">
-        <v>29.37</v>
+        <v>31.02</v>
       </c>
       <c r="F15" t="n">
-        <v>48.4</v>
+        <v>45.97</v>
       </c>
     </row>
     <row r="16">
@@ -751,19 +751,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>9.16</v>
+        <v>8.35</v>
       </c>
       <c r="C16" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="D16" t="n">
-        <v>49.03</v>
+        <v>49.48</v>
       </c>
       <c r="E16" t="n">
-        <v>29.35</v>
+        <v>31.01</v>
       </c>
       <c r="F16" t="n">
-        <v>48.36</v>
+        <v>45.95</v>
       </c>
     </row>
     <row r="17">
@@ -771,19 +771,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>9.17</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>21.61</v>
+        <v>21.8</v>
       </c>
       <c r="D17" t="n">
-        <v>49.03</v>
+        <v>49.47</v>
       </c>
       <c r="E17" t="n">
-        <v>29.38</v>
+        <v>31.03</v>
       </c>
       <c r="F17" t="n">
-        <v>48.43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18">
@@ -791,19 +791,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>9.17</v>
+        <v>8.35</v>
       </c>
       <c r="C18" t="n">
-        <v>21.61</v>
+        <v>21.8</v>
       </c>
       <c r="D18" t="n">
-        <v>49.03</v>
+        <v>49.48</v>
       </c>
       <c r="E18" t="n">
-        <v>29.38</v>
+        <v>31.01</v>
       </c>
       <c r="F18" t="n">
-        <v>48.43</v>
+        <v>45.95</v>
       </c>
     </row>
     <row r="19">
@@ -811,19 +811,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>9.17</v>
+        <v>8.35</v>
       </c>
       <c r="C19" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="D19" t="n">
-        <v>49.03</v>
+        <v>49.47</v>
       </c>
       <c r="E19" t="n">
-        <v>29.36</v>
+        <v>31.02</v>
       </c>
       <c r="F19" t="n">
-        <v>48.39</v>
+        <v>45.97</v>
       </c>
     </row>
     <row r="20">
@@ -831,19 +831,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>9.18</v>
+        <v>8.35</v>
       </c>
       <c r="C20" t="n">
-        <v>21.61</v>
+        <v>21.8</v>
       </c>
       <c r="D20" t="n">
-        <v>49.03</v>
+        <v>49.47</v>
       </c>
       <c r="E20" t="n">
-        <v>29.38</v>
+        <v>31.02</v>
       </c>
       <c r="F20" t="n">
-        <v>48.44</v>
+        <v>45.97</v>
       </c>
     </row>
     <row r="21">
@@ -851,19 +851,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>9.18</v>
+        <v>8.34</v>
       </c>
       <c r="C21" t="n">
-        <v>21.61</v>
+        <v>21.8</v>
       </c>
       <c r="D21" t="n">
-        <v>49.03</v>
+        <v>49.48</v>
       </c>
       <c r="E21" t="n">
-        <v>29.39</v>
+        <v>31</v>
       </c>
       <c r="F21" t="n">
-        <v>48.45</v>
+        <v>45.93</v>
       </c>
     </row>
     <row r="22">
@@ -871,19 +871,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>9.16</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="D22" t="n">
-        <v>49.03</v>
+        <v>49.47</v>
       </c>
       <c r="E22" t="n">
-        <v>29.36</v>
+        <v>31.03</v>
       </c>
       <c r="F22" t="n">
-        <v>48.39</v>
+        <v>45.99</v>
       </c>
     </row>
     <row r="23">
@@ -891,19 +891,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>9.17</v>
+        <v>8.35</v>
       </c>
       <c r="C23" t="n">
-        <v>21.61</v>
+        <v>21.8</v>
       </c>
       <c r="D23" t="n">
-        <v>49.03</v>
+        <v>49.48</v>
       </c>
       <c r="E23" t="n">
-        <v>29.38</v>
+        <v>31.01</v>
       </c>
       <c r="F23" t="n">
-        <v>48.43</v>
+        <v>45.96</v>
       </c>
     </row>
     <row r="24">
@@ -911,19 +911,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>9.17</v>
+        <v>8.35</v>
       </c>
       <c r="C24" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="D24" t="n">
-        <v>49.03</v>
+        <v>49.48</v>
       </c>
       <c r="E24" t="n">
-        <v>29.37</v>
+        <v>31.01</v>
       </c>
       <c r="F24" t="n">
-        <v>48.39</v>
+        <v>45.96</v>
       </c>
     </row>
     <row r="25">
@@ -931,19 +931,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>9.16</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="C25" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="D25" t="n">
-        <v>49.03</v>
+        <v>49.47</v>
       </c>
       <c r="E25" t="n">
-        <v>29.36</v>
+        <v>31.03</v>
       </c>
       <c r="F25" t="n">
-        <v>48.38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26">
@@ -951,19 +951,19 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>9.17</v>
+        <v>8.35</v>
       </c>
       <c r="C26" t="n">
-        <v>21.61</v>
+        <v>21.8</v>
       </c>
       <c r="D26" t="n">
-        <v>49.03</v>
+        <v>49.48</v>
       </c>
       <c r="E26" t="n">
-        <v>29.38</v>
+        <v>31.01</v>
       </c>
       <c r="F26" t="n">
-        <v>48.43</v>
+        <v>45.94</v>
       </c>
     </row>
     <row r="27">
@@ -971,19 +971,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>9.17</v>
+        <v>8.35</v>
       </c>
       <c r="C27" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="D27" t="n">
-        <v>49.03</v>
+        <v>49.47</v>
       </c>
       <c r="E27" t="n">
-        <v>29.36</v>
+        <v>31.02</v>
       </c>
       <c r="F27" t="n">
-        <v>48.39</v>
+        <v>45.98</v>
       </c>
     </row>
     <row r="28">
@@ -991,19 +991,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>9.16</v>
+        <v>8.35</v>
       </c>
       <c r="C28" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="D28" t="n">
-        <v>49.03</v>
+        <v>49.47</v>
       </c>
       <c r="E28" t="n">
-        <v>29.36</v>
+        <v>31.01</v>
       </c>
       <c r="F28" t="n">
-        <v>48.38</v>
+        <v>45.96</v>
       </c>
     </row>
     <row r="29">
@@ -1011,19 +1011,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>9.17</v>
+        <v>8.34</v>
       </c>
       <c r="C29" t="n">
-        <v>21.61</v>
+        <v>21.8</v>
       </c>
       <c r="D29" t="n">
-        <v>49.03</v>
+        <v>49.48</v>
       </c>
       <c r="E29" t="n">
-        <v>29.38</v>
+        <v>31</v>
       </c>
       <c r="F29" t="n">
-        <v>48.43</v>
+        <v>45.93</v>
       </c>
     </row>
     <row r="30">
@@ -1031,19 +1031,19 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>9.17</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="D30" t="n">
-        <v>49.03</v>
+        <v>49.47</v>
       </c>
       <c r="E30" t="n">
-        <v>29.37</v>
+        <v>31.03</v>
       </c>
       <c r="F30" t="n">
-        <v>48.39</v>
+        <v>46.01</v>
       </c>
     </row>
     <row r="31">
@@ -1051,19 +1051,19 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>9.16</v>
+        <v>8.35</v>
       </c>
       <c r="C31" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="D31" t="n">
-        <v>49.03</v>
+        <v>49.48</v>
       </c>
       <c r="E31" t="n">
-        <v>29.35</v>
+        <v>31.01</v>
       </c>
       <c r="F31" t="n">
-        <v>48.35</v>
+        <v>45.95</v>
       </c>
     </row>
     <row r="32">
@@ -1071,19 +1071,19 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>9.17</v>
+        <v>8.35</v>
       </c>
       <c r="C32" t="n">
-        <v>21.61</v>
+        <v>21.8</v>
       </c>
       <c r="D32" t="n">
-        <v>49.03</v>
+        <v>49.47</v>
       </c>
       <c r="E32" t="n">
-        <v>29.38</v>
+        <v>31.02</v>
       </c>
       <c r="F32" t="n">
-        <v>48.43</v>
+        <v>45.97</v>
       </c>
     </row>
     <row r="33">
@@ -1091,19 +1091,19 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>9.17</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="C33" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="D33" t="n">
-        <v>49.03</v>
+        <v>49.47</v>
       </c>
       <c r="E33" t="n">
-        <v>29.37</v>
+        <v>31.03</v>
       </c>
       <c r="F33" t="n">
-        <v>48.4</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34">
@@ -1111,19 +1111,19 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>9.16</v>
+        <v>8.34</v>
       </c>
       <c r="C34" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="D34" t="n">
-        <v>49.03</v>
+        <v>49.48</v>
       </c>
       <c r="E34" t="n">
-        <v>29.36</v>
+        <v>31</v>
       </c>
       <c r="F34" t="n">
-        <v>48.38</v>
+        <v>45.94</v>
       </c>
     </row>
     <row r="35">
@@ -1131,19 +1131,19 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>9.18</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>21.61</v>
+        <v>21.8</v>
       </c>
       <c r="D35" t="n">
-        <v>49.03</v>
+        <v>49.47</v>
       </c>
       <c r="E35" t="n">
-        <v>29.38</v>
+        <v>31.03</v>
       </c>
       <c r="F35" t="n">
-        <v>48.44</v>
+        <v>45.99</v>
       </c>
     </row>
     <row r="36">
@@ -1151,19 +1151,19 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>9.18</v>
+        <v>8.35</v>
       </c>
       <c r="C36" t="n">
-        <v>21.61</v>
+        <v>21.8</v>
       </c>
       <c r="D36" t="n">
-        <v>49.03</v>
+        <v>49.48</v>
       </c>
       <c r="E36" t="n">
-        <v>29.38</v>
+        <v>31.01</v>
       </c>
       <c r="F36" t="n">
-        <v>48.44</v>
+        <v>45.95</v>
       </c>
     </row>
     <row r="37">
@@ -1171,19 +1171,19 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>9.17</v>
+        <v>8.35</v>
       </c>
       <c r="C37" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="D37" t="n">
-        <v>49.03</v>
+        <v>49.48</v>
       </c>
       <c r="E37" t="n">
-        <v>29.36</v>
+        <v>31</v>
       </c>
       <c r="F37" t="n">
-        <v>48.39</v>
+        <v>45.94</v>
       </c>
     </row>
     <row r="38">
@@ -1191,19 +1191,19 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>9.17</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="C38" t="n">
-        <v>21.61</v>
+        <v>21.8</v>
       </c>
       <c r="D38" t="n">
-        <v>49.03</v>
+        <v>49.47</v>
       </c>
       <c r="E38" t="n">
-        <v>29.38</v>
+        <v>31.04</v>
       </c>
       <c r="F38" t="n">
-        <v>48.43</v>
+        <v>46.01</v>
       </c>
     </row>
     <row r="39">
@@ -1211,19 +1211,19 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>9.17</v>
+        <v>8.35</v>
       </c>
       <c r="C39" t="n">
-        <v>21.61</v>
+        <v>21.8</v>
       </c>
       <c r="D39" t="n">
-        <v>49.03</v>
+        <v>49.48</v>
       </c>
       <c r="E39" t="n">
-        <v>29.38</v>
+        <v>31.01</v>
       </c>
       <c r="F39" t="n">
-        <v>48.44</v>
+        <v>45.95</v>
       </c>
     </row>
     <row r="40">
@@ -1231,19 +1231,19 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>9.17</v>
+        <v>8.35</v>
       </c>
       <c r="C40" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="D40" t="n">
-        <v>49.03</v>
+        <v>49.47</v>
       </c>
       <c r="E40" t="n">
-        <v>29.36</v>
+        <v>31.02</v>
       </c>
       <c r="F40" t="n">
-        <v>48.39</v>
+        <v>45.98</v>
       </c>
     </row>
     <row r="41">
@@ -1251,19 +1251,19 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>9.17</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="C41" t="n">
-        <v>21.61</v>
+        <v>21.8</v>
       </c>
       <c r="D41" t="n">
-        <v>49.03</v>
+        <v>49.47</v>
       </c>
       <c r="E41" t="n">
-        <v>29.38</v>
+        <v>31.02</v>
       </c>
       <c r="F41" t="n">
-        <v>48.43</v>
+        <v>45.99</v>
       </c>
     </row>
     <row r="42">
@@ -1271,19 +1271,19 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>9.17</v>
+        <v>8.34</v>
       </c>
       <c r="C42" t="n">
-        <v>21.61</v>
+        <v>21.8</v>
       </c>
       <c r="D42" t="n">
-        <v>49.03</v>
+        <v>49.48</v>
       </c>
       <c r="E42" t="n">
-        <v>29.38</v>
+        <v>31</v>
       </c>
       <c r="F42" t="n">
-        <v>48.43</v>
+        <v>45.94</v>
       </c>
     </row>
     <row r="43">
@@ -1291,19 +1291,19 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>9.17</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="D43" t="n">
-        <v>49.03</v>
+        <v>49.47</v>
       </c>
       <c r="E43" t="n">
-        <v>29.36</v>
+        <v>31.03</v>
       </c>
       <c r="F43" t="n">
-        <v>48.39</v>
+        <v>45.99</v>
       </c>
     </row>
     <row r="44">
@@ -1311,19 +1311,19 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>9.17</v>
+        <v>8.35</v>
       </c>
       <c r="C44" t="n">
-        <v>21.61</v>
+        <v>21.8</v>
       </c>
       <c r="D44" t="n">
-        <v>49.03</v>
+        <v>49.48</v>
       </c>
       <c r="E44" t="n">
-        <v>29.38</v>
+        <v>31.01</v>
       </c>
       <c r="F44" t="n">
-        <v>48.43</v>
+        <v>45.94</v>
       </c>
     </row>
     <row r="45">
@@ -1331,19 +1331,19 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>9.17</v>
+        <v>8.35</v>
       </c>
       <c r="C45" t="n">
-        <v>21.61</v>
+        <v>21.8</v>
       </c>
       <c r="D45" t="n">
-        <v>49.03</v>
+        <v>49.48</v>
       </c>
       <c r="E45" t="n">
-        <v>29.38</v>
+        <v>31.01</v>
       </c>
       <c r="F45" t="n">
-        <v>48.42</v>
+        <v>45.95</v>
       </c>
     </row>
     <row r="46">
@@ -1351,19 +1351,19 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>9.16</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="C46" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="D46" t="n">
-        <v>49.03</v>
+        <v>49.47</v>
       </c>
       <c r="E46" t="n">
-        <v>29.36</v>
+        <v>31.03</v>
       </c>
       <c r="F46" t="n">
-        <v>48.38</v>
+        <v>46.01</v>
       </c>
     </row>
     <row r="47">
@@ -1371,19 +1371,19 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>9.17</v>
+        <v>8.35</v>
       </c>
       <c r="C47" t="n">
-        <v>21.61</v>
+        <v>21.8</v>
       </c>
       <c r="D47" t="n">
-        <v>49.03</v>
+        <v>49.48</v>
       </c>
       <c r="E47" t="n">
-        <v>29.38</v>
+        <v>31.01</v>
       </c>
       <c r="F47" t="n">
-        <v>48.43</v>
+        <v>45.94</v>
       </c>
     </row>
     <row r="48">
@@ -1391,19 +1391,19 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>9.17</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="D48" t="n">
-        <v>49.03</v>
+        <v>49.47</v>
       </c>
       <c r="E48" t="n">
-        <v>29.36</v>
+        <v>31.02</v>
       </c>
       <c r="F48" t="n">
-        <v>48.39</v>
+        <v>45.99</v>
       </c>
     </row>
     <row r="49">
@@ -1411,19 +1411,19 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>9.16</v>
+        <v>8.35</v>
       </c>
       <c r="C49" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="D49" t="n">
-        <v>49.03</v>
+        <v>49.47</v>
       </c>
       <c r="E49" t="n">
-        <v>29.35</v>
+        <v>31.02</v>
       </c>
       <c r="F49" t="n">
-        <v>48.35</v>
+        <v>45.97</v>
       </c>
     </row>
     <row r="50">
@@ -1431,19 +1431,19 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>9.18</v>
+        <v>8.35</v>
       </c>
       <c r="C50" t="n">
-        <v>21.61</v>
+        <v>21.8</v>
       </c>
       <c r="D50" t="n">
-        <v>49.03</v>
+        <v>49.48</v>
       </c>
       <c r="E50" t="n">
-        <v>29.38</v>
+        <v>31.01</v>
       </c>
       <c r="F50" t="n">
-        <v>48.44</v>
+        <v>45.94</v>
       </c>
     </row>
     <row r="51">
@@ -1451,19 +1451,19 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>9.17</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="C51" t="n">
-        <v>21.61</v>
+        <v>21.8</v>
       </c>
       <c r="D51" t="n">
-        <v>49.03</v>
+        <v>49.47</v>
       </c>
       <c r="E51" t="n">
-        <v>29.37</v>
+        <v>31.03</v>
       </c>
       <c r="F51" t="n">
-        <v>48.41</v>
+        <v>45.99</v>
       </c>
     </row>
     <row r="52">
@@ -1471,19 +1471,19 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>9.17</v>
+        <v>8.34</v>
       </c>
       <c r="C52" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="D52" t="n">
-        <v>49.03</v>
+        <v>49.48</v>
       </c>
       <c r="E52" t="n">
-        <v>29.36</v>
+        <v>31</v>
       </c>
       <c r="F52" t="n">
-        <v>48.39</v>
+        <v>45.93</v>
       </c>
     </row>
     <row r="53">
@@ -1491,19 +1491,19 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>9.18</v>
+        <v>8.35</v>
       </c>
       <c r="C53" t="n">
-        <v>21.61</v>
+        <v>21.8</v>
       </c>
       <c r="D53" t="n">
-        <v>49.03</v>
+        <v>49.48</v>
       </c>
       <c r="E53" t="n">
-        <v>29.38</v>
+        <v>31.01</v>
       </c>
       <c r="F53" t="n">
-        <v>48.44</v>
+        <v>45.96</v>
       </c>
     </row>
     <row r="54">
@@ -1511,19 +1511,19 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>9.17</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="C54" t="n">
-        <v>21.61</v>
+        <v>21.8</v>
       </c>
       <c r="D54" t="n">
-        <v>49.03</v>
+        <v>49.47</v>
       </c>
       <c r="E54" t="n">
-        <v>29.37</v>
+        <v>31.03</v>
       </c>
       <c r="F54" t="n">
-        <v>48.41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="55">
@@ -1531,19 +1531,19 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>9.17</v>
+        <v>8.35</v>
       </c>
       <c r="C55" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="D55" t="n">
-        <v>49.03</v>
+        <v>49.48</v>
       </c>
       <c r="E55" t="n">
-        <v>29.36</v>
+        <v>31.01</v>
       </c>
       <c r="F55" t="n">
-        <v>48.39</v>
+        <v>45.95</v>
       </c>
     </row>
     <row r="56">
@@ -1551,19 +1551,19 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>9.18</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>21.61</v>
+        <v>21.8</v>
       </c>
       <c r="D56" t="n">
-        <v>49.03</v>
+        <v>49.47</v>
       </c>
       <c r="E56" t="n">
-        <v>29.38</v>
+        <v>31.03</v>
       </c>
       <c r="F56" t="n">
-        <v>48.44</v>
+        <v>45.99</v>
       </c>
     </row>
     <row r="57">
@@ -1571,19 +1571,19 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>9.18</v>
+        <v>8.35</v>
       </c>
       <c r="C57" t="n">
-        <v>21.61</v>
+        <v>21.8</v>
       </c>
       <c r="D57" t="n">
-        <v>49.03</v>
+        <v>49.48</v>
       </c>
       <c r="E57" t="n">
-        <v>29.39</v>
+        <v>31.01</v>
       </c>
       <c r="F57" t="n">
-        <v>48.45</v>
+        <v>45.96</v>
       </c>
     </row>
     <row r="58">
@@ -1591,19 +1591,19 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>9.17</v>
+        <v>8.35</v>
       </c>
       <c r="C58" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="D58" t="n">
-        <v>49.03</v>
+        <v>49.48</v>
       </c>
       <c r="E58" t="n">
-        <v>29.36</v>
+        <v>31.01</v>
       </c>
       <c r="F58" t="n">
-        <v>48.39</v>
+        <v>45.95</v>
       </c>
     </row>
     <row r="59">
@@ -1611,19 +1611,19 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>9.17</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="C59" t="n">
-        <v>21.61</v>
+        <v>21.8</v>
       </c>
       <c r="D59" t="n">
-        <v>49.03</v>
+        <v>49.47</v>
       </c>
       <c r="E59" t="n">
-        <v>29.38</v>
+        <v>31.02</v>
       </c>
       <c r="F59" t="n">
-        <v>48.43</v>
+        <v>45.98</v>
       </c>
     </row>
     <row r="60">
@@ -1631,19 +1631,19 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>9.17</v>
+        <v>8.34</v>
       </c>
       <c r="C60" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="D60" t="n">
-        <v>49.03</v>
+        <v>49.48</v>
       </c>
       <c r="E60" t="n">
-        <v>29.37</v>
+        <v>31</v>
       </c>
       <c r="F60" t="n">
-        <v>48.4</v>
+        <v>45.93</v>
       </c>
     </row>
     <row r="61">
@@ -1651,19 +1651,19 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>9.16</v>
+        <v>8.35</v>
       </c>
       <c r="C61" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="D61" t="n">
-        <v>49.03</v>
+        <v>49.47</v>
       </c>
       <c r="E61" t="n">
-        <v>29.35</v>
+        <v>31.02</v>
       </c>
       <c r="F61" t="n">
-        <v>48.36</v>
+        <v>45.97</v>
       </c>
     </row>
     <row r="62">
@@ -1671,19 +1671,19 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>9.18</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="C62" t="n">
-        <v>21.61</v>
+        <v>21.8</v>
       </c>
       <c r="D62" t="n">
-        <v>49.03</v>
+        <v>49.47</v>
       </c>
       <c r="E62" t="n">
-        <v>29.38</v>
+        <v>31.03</v>
       </c>
       <c r="F62" t="n">
-        <v>48.44</v>
+        <v>45.99</v>
       </c>
     </row>
     <row r="63">
@@ -1691,19 +1691,19 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>9.17</v>
+        <v>8.35</v>
       </c>
       <c r="C63" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="D63" t="n">
-        <v>49.03</v>
+        <v>49.48</v>
       </c>
       <c r="E63" t="n">
-        <v>29.36</v>
+        <v>31.01</v>
       </c>
       <c r="F63" t="n">
-        <v>48.39</v>
+        <v>45.95</v>
       </c>
     </row>
     <row r="64">
@@ -1711,19 +1711,19 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>9.16</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="C64" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="D64" t="n">
-        <v>49.03</v>
+        <v>49.47</v>
       </c>
       <c r="E64" t="n">
-        <v>29.35</v>
+        <v>31.03</v>
       </c>
       <c r="F64" t="n">
-        <v>48.36</v>
+        <v>45.99</v>
       </c>
     </row>
     <row r="65">
@@ -1731,19 +1731,19 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>9.18</v>
+        <v>8.35</v>
       </c>
       <c r="C65" t="n">
-        <v>21.61</v>
+        <v>21.8</v>
       </c>
       <c r="D65" t="n">
-        <v>49.03</v>
+        <v>49.48</v>
       </c>
       <c r="E65" t="n">
-        <v>29.38</v>
+        <v>31.01</v>
       </c>
       <c r="F65" t="n">
-        <v>48.44</v>
+        <v>45.95</v>
       </c>
     </row>
     <row r="66">
@@ -1751,19 +1751,19 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>9.17</v>
+        <v>8.35</v>
       </c>
       <c r="C66" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="D66" t="n">
-        <v>49.03</v>
+        <v>49.48</v>
       </c>
       <c r="E66" t="n">
-        <v>29.36</v>
+        <v>31.01</v>
       </c>
       <c r="F66" t="n">
-        <v>48.39</v>
+        <v>45.96</v>
       </c>
     </row>
     <row r="67">
@@ -1771,19 +1771,19 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>9.16</v>
+        <v>8.35</v>
       </c>
       <c r="C67" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="D67" t="n">
-        <v>49.03</v>
+        <v>49.47</v>
       </c>
       <c r="E67" t="n">
-        <v>29.35</v>
+        <v>31.02</v>
       </c>
       <c r="F67" t="n">
-        <v>48.37</v>
+        <v>45.97</v>
       </c>
     </row>
     <row r="68">
@@ -1791,19 +1791,19 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>9.18</v>
+        <v>8.34</v>
       </c>
       <c r="C68" t="n">
-        <v>21.61</v>
+        <v>21.8</v>
       </c>
       <c r="D68" t="n">
-        <v>49.03</v>
+        <v>49.48</v>
       </c>
       <c r="E68" t="n">
-        <v>29.38</v>
+        <v>31</v>
       </c>
       <c r="F68" t="n">
-        <v>48.44</v>
+        <v>45.93</v>
       </c>
     </row>
     <row r="69">
@@ -1811,19 +1811,19 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>9.17</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="D69" t="n">
-        <v>49.03</v>
+        <v>49.47</v>
       </c>
       <c r="E69" t="n">
-        <v>29.36</v>
+        <v>31.02</v>
       </c>
       <c r="F69" t="n">
-        <v>48.39</v>
+        <v>45.99</v>
       </c>
     </row>
     <row r="70">
@@ -1831,19 +1831,19 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>9.16</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="C70" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="D70" t="n">
-        <v>49.03</v>
+        <v>49.47</v>
       </c>
       <c r="E70" t="n">
-        <v>29.36</v>
+        <v>31.02</v>
       </c>
       <c r="F70" t="n">
-        <v>48.37</v>
+        <v>45.98</v>
       </c>
     </row>
     <row r="71">
@@ -1851,19 +1851,19 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>9.18</v>
+        <v>8.35</v>
       </c>
       <c r="C71" t="n">
-        <v>21.61</v>
+        <v>21.8</v>
       </c>
       <c r="D71" t="n">
-        <v>49.03</v>
+        <v>49.47</v>
       </c>
       <c r="E71" t="n">
-        <v>29.38</v>
+        <v>31.01</v>
       </c>
       <c r="F71" t="n">
-        <v>48.44</v>
+        <v>45.96</v>
       </c>
     </row>
     <row r="72">
@@ -1871,19 +1871,19 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>9.17</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="C72" t="n">
-        <v>21.61</v>
+        <v>21.8</v>
       </c>
       <c r="D72" t="n">
-        <v>49.03</v>
+        <v>49.47</v>
       </c>
       <c r="E72" t="n">
-        <v>29.38</v>
+        <v>31.03</v>
       </c>
       <c r="F72" t="n">
-        <v>48.42</v>
+        <v>45.99</v>
       </c>
     </row>
     <row r="73">
@@ -1891,19 +1891,19 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>9.17</v>
+        <v>8.35</v>
       </c>
       <c r="C73" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="D73" t="n">
-        <v>49.03</v>
+        <v>49.48</v>
       </c>
       <c r="E73" t="n">
-        <v>29.37</v>
+        <v>31.01</v>
       </c>
       <c r="F73" t="n">
-        <v>48.39</v>
+        <v>45.96</v>
       </c>
     </row>
     <row r="74">
@@ -1911,19 +1911,19 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>9.18</v>
+        <v>8.35</v>
       </c>
       <c r="C74" t="n">
-        <v>21.61</v>
+        <v>21.8</v>
       </c>
       <c r="D74" t="n">
-        <v>49.03</v>
+        <v>49.47</v>
       </c>
       <c r="E74" t="n">
-        <v>29.38</v>
+        <v>31.02</v>
       </c>
       <c r="F74" t="n">
-        <v>48.44</v>
+        <v>45.97</v>
       </c>
     </row>
     <row r="75">
@@ -1931,19 +1931,19 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>9.18</v>
+        <v>8.35</v>
       </c>
       <c r="C75" t="n">
-        <v>21.61</v>
+        <v>21.8</v>
       </c>
       <c r="D75" t="n">
-        <v>49.03</v>
+        <v>49.48</v>
       </c>
       <c r="E75" t="n">
-        <v>29.38</v>
+        <v>31.01</v>
       </c>
       <c r="F75" t="n">
-        <v>48.44</v>
+        <v>45.96</v>
       </c>
     </row>
     <row r="76">
@@ -1951,19 +1951,19 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>9.17</v>
+        <v>8.35</v>
       </c>
       <c r="C76" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="D76" t="n">
-        <v>49.03</v>
+        <v>49.48</v>
       </c>
       <c r="E76" t="n">
-        <v>29.36</v>
+        <v>31.01</v>
       </c>
       <c r="F76" t="n">
-        <v>48.39</v>
+        <v>45.94</v>
       </c>
     </row>
     <row r="77">
@@ -1971,19 +1971,19 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>9.17</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="C77" t="n">
-        <v>21.61</v>
+        <v>21.8</v>
       </c>
       <c r="D77" t="n">
-        <v>49.03</v>
+        <v>49.47</v>
       </c>
       <c r="E77" t="n">
-        <v>29.38</v>
+        <v>31.02</v>
       </c>
       <c r="F77" t="n">
-        <v>48.43</v>
+        <v>45.98</v>
       </c>
     </row>
     <row r="78">
@@ -1991,19 +1991,19 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>9.16</v>
+        <v>8.34</v>
       </c>
       <c r="C78" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="D78" t="n">
-        <v>49.03</v>
+        <v>49.48</v>
       </c>
       <c r="E78" t="n">
-        <v>29.36</v>
+        <v>31</v>
       </c>
       <c r="F78" t="n">
-        <v>48.38</v>
+        <v>45.93</v>
       </c>
     </row>
     <row r="79">
@@ -2011,19 +2011,19 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>9.16</v>
+        <v>8.34</v>
       </c>
       <c r="C79" t="n">
-        <v>21.6</v>
+        <v>21.79</v>
       </c>
       <c r="D79" t="n">
-        <v>49.03</v>
+        <v>49.48</v>
       </c>
       <c r="E79" t="n">
-        <v>29.36</v>
+        <v>31</v>
       </c>
       <c r="F79" t="n">
-        <v>48.39</v>
+        <v>45.93</v>
       </c>
     </row>
     <row r="80">
@@ -2031,19 +2031,19 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>9.17</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="C80" t="n">
-        <v>21.61</v>
+        <v>21.8</v>
       </c>
       <c r="D80" t="n">
-        <v>49.03</v>
+        <v>49.47</v>
       </c>
       <c r="E80" t="n">
-        <v>29.38</v>
+        <v>31.03</v>
       </c>
       <c r="F80" t="n">
-        <v>48.43</v>
+        <v>46.01</v>
       </c>
     </row>
     <row r="81">
@@ -2051,19 +2051,19 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>9.16</v>
+        <v>8.35</v>
       </c>
       <c r="C81" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="D81" t="n">
-        <v>49.03</v>
+        <v>49.48</v>
       </c>
       <c r="E81" t="n">
-        <v>29.36</v>
+        <v>31.01</v>
       </c>
       <c r="F81" t="n">
-        <v>48.38</v>
+        <v>45.95</v>
       </c>
     </row>
     <row r="82">
@@ -2071,19 +2071,19 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>9.16</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="D82" t="n">
-        <v>49.03</v>
+        <v>49.47</v>
       </c>
       <c r="E82" t="n">
-        <v>29.36</v>
+        <v>31.02</v>
       </c>
       <c r="F82" t="n">
-        <v>48.38</v>
+        <v>45.98</v>
       </c>
     </row>
     <row r="83">
@@ -2091,19 +2091,19 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>9.17</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="C83" t="n">
-        <v>21.61</v>
+        <v>21.8</v>
       </c>
       <c r="D83" t="n">
-        <v>49.03</v>
+        <v>49.47</v>
       </c>
       <c r="E83" t="n">
-        <v>29.38</v>
+        <v>31.03</v>
       </c>
       <c r="F83" t="n">
-        <v>48.43</v>
+        <v>46.01</v>
       </c>
     </row>
     <row r="84">
@@ -2111,19 +2111,19 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>9.16</v>
+        <v>8.35</v>
       </c>
       <c r="C84" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="D84" t="n">
-        <v>49.03</v>
+        <v>49.48</v>
       </c>
       <c r="E84" t="n">
-        <v>29.36</v>
+        <v>31.01</v>
       </c>
       <c r="F84" t="n">
-        <v>48.38</v>
+        <v>45.95</v>
       </c>
     </row>
     <row r="85">
@@ -2131,19 +2131,19 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>9.16</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="C85" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="D85" t="n">
-        <v>49.03</v>
+        <v>49.47</v>
       </c>
       <c r="E85" t="n">
-        <v>29.35</v>
+        <v>31.02</v>
       </c>
       <c r="F85" t="n">
-        <v>48.35</v>
+        <v>45.98</v>
       </c>
     </row>
     <row r="86">
@@ -2151,19 +2151,19 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>9.18</v>
+        <v>8.34</v>
       </c>
       <c r="C86" t="n">
-        <v>21.61</v>
+        <v>21.79</v>
       </c>
       <c r="D86" t="n">
-        <v>49.03</v>
+        <v>49.48</v>
       </c>
       <c r="E86" t="n">
-        <v>29.38</v>
+        <v>31</v>
       </c>
       <c r="F86" t="n">
-        <v>48.44</v>
+        <v>45.92</v>
       </c>
     </row>
     <row r="87">
@@ -2171,19 +2171,19 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>9.17</v>
+        <v>8.35</v>
       </c>
       <c r="C87" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="D87" t="n">
-        <v>49.03</v>
+        <v>49.47</v>
       </c>
       <c r="E87" t="n">
-        <v>29.37</v>
+        <v>31.02</v>
       </c>
       <c r="F87" t="n">
-        <v>48.4</v>
+        <v>45.96</v>
       </c>
     </row>
     <row r="88">
@@ -2191,19 +2191,19 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>9.16</v>
+        <v>8.35</v>
       </c>
       <c r="C88" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="D88" t="n">
-        <v>49.03</v>
+        <v>49.47</v>
       </c>
       <c r="E88" t="n">
-        <v>29.36</v>
+        <v>31.02</v>
       </c>
       <c r="F88" t="n">
-        <v>48.38</v>
+        <v>45.97</v>
       </c>
     </row>
     <row r="89">
@@ -2211,19 +2211,19 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>9.18</v>
+        <v>8.34</v>
       </c>
       <c r="C89" t="n">
-        <v>21.61</v>
+        <v>21.79</v>
       </c>
       <c r="D89" t="n">
-        <v>49.03</v>
+        <v>49.48</v>
       </c>
       <c r="E89" t="n">
-        <v>29.39</v>
+        <v>31</v>
       </c>
       <c r="F89" t="n">
-        <v>48.45</v>
+        <v>45.92</v>
       </c>
     </row>
     <row r="90">
@@ -2231,19 +2231,19 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>9.17</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="C90" t="n">
-        <v>21.61</v>
+        <v>21.8</v>
       </c>
       <c r="D90" t="n">
-        <v>49.03</v>
+        <v>49.47</v>
       </c>
       <c r="E90" t="n">
-        <v>29.38</v>
+        <v>31.03</v>
       </c>
       <c r="F90" t="n">
-        <v>48.43</v>
+        <v>45.99</v>
       </c>
     </row>
     <row r="91">
@@ -2251,19 +2251,19 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>9.17</v>
+        <v>8.35</v>
       </c>
       <c r="C91" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="D91" t="n">
-        <v>49.03</v>
+        <v>49.48</v>
       </c>
       <c r="E91" t="n">
-        <v>29.37</v>
+        <v>31.01</v>
       </c>
       <c r="F91" t="n">
-        <v>48.4</v>
+        <v>45.95</v>
       </c>
     </row>
     <row r="92">
@@ -2271,19 +2271,19 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>9.18</v>
+        <v>8.35</v>
       </c>
       <c r="C92" t="n">
-        <v>21.61</v>
+        <v>21.8</v>
       </c>
       <c r="D92" t="n">
-        <v>49.03</v>
+        <v>49.48</v>
       </c>
       <c r="E92" t="n">
-        <v>29.38</v>
+        <v>31.01</v>
       </c>
       <c r="F92" t="n">
-        <v>48.44</v>
+        <v>45.94</v>
       </c>
     </row>
     <row r="93">
@@ -2291,19 +2291,19 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>9.17</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="C93" t="n">
-        <v>21.61</v>
+        <v>21.8</v>
       </c>
       <c r="D93" t="n">
-        <v>49.03</v>
+        <v>49.47</v>
       </c>
       <c r="E93" t="n">
-        <v>29.38</v>
+        <v>31.04</v>
       </c>
       <c r="F93" t="n">
-        <v>48.42</v>
+        <v>46.02</v>
       </c>
     </row>
     <row r="94">
@@ -2311,19 +2311,19 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>9.17</v>
+        <v>8.35</v>
       </c>
       <c r="C94" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="D94" t="n">
-        <v>49.03</v>
+        <v>49.48</v>
       </c>
       <c r="E94" t="n">
-        <v>29.37</v>
+        <v>31.01</v>
       </c>
       <c r="F94" t="n">
-        <v>48.4</v>
+        <v>45.95</v>
       </c>
     </row>
     <row r="95">
@@ -2331,19 +2331,19 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>9.18</v>
+        <v>8.35</v>
       </c>
       <c r="C95" t="n">
-        <v>21.61</v>
+        <v>21.8</v>
       </c>
       <c r="D95" t="n">
-        <v>49.03</v>
+        <v>49.47</v>
       </c>
       <c r="E95" t="n">
-        <v>29.38</v>
+        <v>31.02</v>
       </c>
       <c r="F95" t="n">
-        <v>48.44</v>
+        <v>45.98</v>
       </c>
     </row>
     <row r="96">
@@ -2351,19 +2351,19 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>9.17</v>
+        <v>8.35</v>
       </c>
       <c r="C96" t="n">
-        <v>21.61</v>
+        <v>21.8</v>
       </c>
       <c r="D96" t="n">
-        <v>49.03</v>
+        <v>49.47</v>
       </c>
       <c r="E96" t="n">
-        <v>29.37</v>
+        <v>31.02</v>
       </c>
       <c r="F96" t="n">
-        <v>48.42</v>
+        <v>45.97</v>
       </c>
     </row>
     <row r="97">
@@ -2371,19 +2371,19 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>9.17</v>
+        <v>8.34</v>
       </c>
       <c r="C97" t="n">
-        <v>21.6</v>
+        <v>21.79</v>
       </c>
       <c r="D97" t="n">
-        <v>49.03</v>
+        <v>49.48</v>
       </c>
       <c r="E97" t="n">
-        <v>29.37</v>
+        <v>31</v>
       </c>
       <c r="F97" t="n">
-        <v>48.4</v>
+        <v>45.92</v>
       </c>
     </row>
     <row r="98">
@@ -2391,19 +2391,19 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>9.18</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="C98" t="n">
-        <v>21.61</v>
+        <v>21.8</v>
       </c>
       <c r="D98" t="n">
-        <v>49.03</v>
+        <v>49.47</v>
       </c>
       <c r="E98" t="n">
-        <v>29.38</v>
+        <v>31.03</v>
       </c>
       <c r="F98" t="n">
-        <v>48.44</v>
+        <v>45.99</v>
       </c>
     </row>
     <row r="99">
@@ -2411,19 +2411,19 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>9.17</v>
+        <v>8.35</v>
       </c>
       <c r="C99" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="D99" t="n">
-        <v>49.03</v>
+        <v>49.48</v>
       </c>
       <c r="E99" t="n">
-        <v>29.37</v>
+        <v>31.01</v>
       </c>
       <c r="F99" t="n">
-        <v>48.41</v>
+        <v>45.94</v>
       </c>
     </row>
     <row r="100">
@@ -2431,19 +2431,19 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>9.16</v>
+        <v>8.35</v>
       </c>
       <c r="C100" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="D100" t="n">
-        <v>49.03</v>
+        <v>49.48</v>
       </c>
       <c r="E100" t="n">
-        <v>29.36</v>
+        <v>31.01</v>
       </c>
       <c r="F100" t="n">
-        <v>48.38</v>
+        <v>45.95</v>
       </c>
     </row>
     <row r="101">
@@ -2451,19 +2451,19 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>9.17</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="C101" t="n">
-        <v>21.61</v>
+        <v>21.8</v>
       </c>
       <c r="D101" t="n">
-        <v>49.03</v>
+        <v>49.47</v>
       </c>
       <c r="E101" t="n">
-        <v>29.38</v>
+        <v>31.03</v>
       </c>
       <c r="F101" t="n">
-        <v>48.43</v>
+        <v>45.99</v>
       </c>
     </row>
     <row r="102">
@@ -2471,19 +2471,19 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>9.16</v>
+        <v>8.35</v>
       </c>
       <c r="C102" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="D102" t="n">
-        <v>49.03</v>
+        <v>49.48</v>
       </c>
       <c r="E102" t="n">
-        <v>29.36</v>
+        <v>31.01</v>
       </c>
       <c r="F102" t="n">
-        <v>48.38</v>
+        <v>45.94</v>
       </c>
     </row>
     <row r="103">
@@ -2491,19 +2491,19 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>9.16</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="C103" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="D103" t="n">
-        <v>49.03</v>
+        <v>49.47</v>
       </c>
       <c r="E103" t="n">
-        <v>29.35</v>
+        <v>31.02</v>
       </c>
       <c r="F103" t="n">
-        <v>48.36</v>
+        <v>45.98</v>
       </c>
     </row>
     <row r="104">
@@ -2511,19 +2511,19 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>9.18</v>
+        <v>8.35</v>
       </c>
       <c r="C104" t="n">
-        <v>21.61</v>
+        <v>21.8</v>
       </c>
       <c r="D104" t="n">
-        <v>49.03</v>
+        <v>49.47</v>
       </c>
       <c r="E104" t="n">
-        <v>29.39</v>
+        <v>31.02</v>
       </c>
       <c r="F104" t="n">
-        <v>48.45</v>
+        <v>45.97</v>
       </c>
     </row>
     <row r="105">
@@ -2531,19 +2531,19 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>9.17</v>
+        <v>8.35</v>
       </c>
       <c r="C105" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="D105" t="n">
-        <v>49.03</v>
+        <v>49.48</v>
       </c>
       <c r="E105" t="n">
-        <v>29.37</v>
+        <v>31.01</v>
       </c>
       <c r="F105" t="n">
-        <v>48.4</v>
+        <v>45.95</v>
       </c>
     </row>
     <row r="106">
@@ -2551,19 +2551,19 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>9.17</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="C106" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="D106" t="n">
-        <v>49.03</v>
+        <v>49.47</v>
       </c>
       <c r="E106" t="n">
-        <v>29.37</v>
+        <v>31.03</v>
       </c>
       <c r="F106" t="n">
-        <v>48.39</v>
+        <v>46.01</v>
       </c>
     </row>
     <row r="107">
@@ -2571,19 +2571,19 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>9.18</v>
+        <v>8.35</v>
       </c>
       <c r="C107" t="n">
-        <v>21.61</v>
+        <v>21.8</v>
       </c>
       <c r="D107" t="n">
-        <v>49.03</v>
+        <v>49.47</v>
       </c>
       <c r="E107" t="n">
-        <v>29.39</v>
+        <v>31.01</v>
       </c>
       <c r="F107" t="n">
-        <v>48.46</v>
+        <v>45.96</v>
       </c>
     </row>
     <row r="108">
@@ -2591,19 +2591,19 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>9.17</v>
+        <v>8.35</v>
       </c>
       <c r="C108" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="D108" t="n">
-        <v>49.03</v>
+        <v>49.47</v>
       </c>
       <c r="E108" t="n">
-        <v>29.37</v>
+        <v>31.02</v>
       </c>
       <c r="F108" t="n">
-        <v>48.4</v>
+        <v>45.97</v>
       </c>
     </row>
     <row r="109">
@@ -2611,19 +2611,19 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>9.17</v>
+        <v>8.35</v>
       </c>
       <c r="C109" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="D109" t="n">
-        <v>49.03</v>
+        <v>49.47</v>
       </c>
       <c r="E109" t="n">
-        <v>29.37</v>
+        <v>31.02</v>
       </c>
       <c r="F109" t="n">
-        <v>48.39</v>
+        <v>45.96</v>
       </c>
     </row>
     <row r="110">
@@ -2631,19 +2631,19 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>9.18</v>
+        <v>8.34</v>
       </c>
       <c r="C110" t="n">
-        <v>21.61</v>
+        <v>21.79</v>
       </c>
       <c r="D110" t="n">
-        <v>49.03</v>
+        <v>49.48</v>
       </c>
       <c r="E110" t="n">
-        <v>29.39</v>
+        <v>31</v>
       </c>
       <c r="F110" t="n">
-        <v>48.45</v>
+        <v>45.91</v>
       </c>
     </row>
     <row r="111">
@@ -2651,19 +2651,19 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>9.17</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="C111" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="D111" t="n">
-        <v>49.03</v>
+        <v>49.47</v>
       </c>
       <c r="E111" t="n">
-        <v>29.37</v>
+        <v>31.03</v>
       </c>
       <c r="F111" t="n">
-        <v>48.4</v>
+        <v>45.99</v>
       </c>
     </row>
     <row r="112">
@@ -2671,19 +2671,19 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>9.17</v>
+        <v>8.35</v>
       </c>
       <c r="C112" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="D112" t="n">
-        <v>49.03</v>
+        <v>49.47</v>
       </c>
       <c r="E112" t="n">
-        <v>29.37</v>
+        <v>31.01</v>
       </c>
       <c r="F112" t="n">
-        <v>48.39</v>
+        <v>45.96</v>
       </c>
     </row>
     <row r="113">
@@ -2691,19 +2691,19 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>9.18</v>
+        <v>8.35</v>
       </c>
       <c r="C113" t="n">
-        <v>21.61</v>
+        <v>21.8</v>
       </c>
       <c r="D113" t="n">
-        <v>49.03</v>
+        <v>49.48</v>
       </c>
       <c r="E113" t="n">
-        <v>29.39</v>
+        <v>31.01</v>
       </c>
       <c r="F113" t="n">
-        <v>48.45</v>
+        <v>45.96</v>
       </c>
     </row>
     <row r="114">
@@ -2711,19 +2711,19 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>9.17</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="C114" t="n">
-        <v>21.61</v>
+        <v>21.8</v>
       </c>
       <c r="D114" t="n">
-        <v>49.03</v>
+        <v>49.47</v>
       </c>
       <c r="E114" t="n">
-        <v>29.38</v>
+        <v>31.04</v>
       </c>
       <c r="F114" t="n">
-        <v>48.43</v>
+        <v>46.02</v>
       </c>
     </row>
     <row r="115">
@@ -2731,19 +2731,19 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>9.17</v>
+        <v>8.35</v>
       </c>
       <c r="C115" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="D115" t="n">
-        <v>49.03</v>
+        <v>49.48</v>
       </c>
       <c r="E115" t="n">
-        <v>29.37</v>
+        <v>31.01</v>
       </c>
       <c r="F115" t="n">
-        <v>48.4</v>
+        <v>45.95</v>
       </c>
     </row>
     <row r="116">
@@ -2751,19 +2751,19 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>9.17</v>
+        <v>8.35</v>
       </c>
       <c r="C116" t="n">
-        <v>21.61</v>
+        <v>21.8</v>
       </c>
       <c r="D116" t="n">
-        <v>49.03</v>
+        <v>49.47</v>
       </c>
       <c r="E116" t="n">
-        <v>29.38</v>
+        <v>31.02</v>
       </c>
       <c r="F116" t="n">
-        <v>48.43</v>
+        <v>45.98</v>
       </c>
     </row>
     <row r="117">
@@ -2771,19 +2771,19 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>9.16</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="C117" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="D117" t="n">
-        <v>49.03</v>
+        <v>49.47</v>
       </c>
       <c r="E117" t="n">
-        <v>29.36</v>
+        <v>31.03</v>
       </c>
       <c r="F117" t="n">
-        <v>48.38</v>
+        <v>45.99</v>
       </c>
     </row>
     <row r="118">
@@ -2791,19 +2791,19 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>9.16</v>
+        <v>8.34</v>
       </c>
       <c r="C118" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="D118" t="n">
-        <v>49.03</v>
+        <v>49.48</v>
       </c>
       <c r="E118" t="n">
-        <v>29.35</v>
+        <v>31</v>
       </c>
       <c r="F118" t="n">
-        <v>48.36</v>
+        <v>45.94</v>
       </c>
     </row>
     <row r="119">
@@ -2811,19 +2811,19 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>9.18</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="C119" t="n">
-        <v>21.61</v>
+        <v>21.8</v>
       </c>
       <c r="D119" t="n">
-        <v>49.03</v>
+        <v>49.47</v>
       </c>
       <c r="E119" t="n">
-        <v>29.38</v>
+        <v>31.03</v>
       </c>
       <c r="F119" t="n">
-        <v>48.44</v>
+        <v>45.99</v>
       </c>
     </row>
     <row r="120">
@@ -2831,19 +2831,19 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>9.16</v>
+        <v>8.34</v>
       </c>
       <c r="C120" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="D120" t="n">
-        <v>49.03</v>
+        <v>49.48</v>
       </c>
       <c r="E120" t="n">
-        <v>29.36</v>
+        <v>31</v>
       </c>
       <c r="F120" t="n">
-        <v>48.39</v>
+        <v>45.94</v>
       </c>
     </row>
     <row r="121">
@@ -2851,19 +2851,19 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>9.16</v>
+        <v>8.35</v>
       </c>
       <c r="C121" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="D121" t="n">
-        <v>49.03</v>
+        <v>49.48</v>
       </c>
       <c r="E121" t="n">
-        <v>29.36</v>
+        <v>31.01</v>
       </c>
       <c r="F121" t="n">
-        <v>48.37</v>
+        <v>45.94</v>
       </c>
     </row>
     <row r="122">
@@ -2871,19 +2871,19 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>9.18</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="C122" t="n">
-        <v>21.61</v>
+        <v>21.8</v>
       </c>
       <c r="D122" t="n">
-        <v>49.03</v>
+        <v>49.47</v>
       </c>
       <c r="E122" t="n">
-        <v>29.38</v>
+        <v>31.04</v>
       </c>
       <c r="F122" t="n">
-        <v>48.44</v>
+        <v>46.02</v>
       </c>
     </row>
     <row r="123">
@@ -2891,19 +2891,19 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>9.16</v>
+        <v>8.35</v>
       </c>
       <c r="C123" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="D123" t="n">
-        <v>49.03</v>
+        <v>49.48</v>
       </c>
       <c r="E123" t="n">
-        <v>29.36</v>
+        <v>31.01</v>
       </c>
       <c r="F123" t="n">
-        <v>48.39</v>
+        <v>45.95</v>
       </c>
     </row>
     <row r="124">
@@ -2911,19 +2911,19 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>9.16</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="C124" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="D124" t="n">
-        <v>49.03</v>
+        <v>49.47</v>
       </c>
       <c r="E124" t="n">
-        <v>29.36</v>
+        <v>31.02</v>
       </c>
       <c r="F124" t="n">
-        <v>48.38</v>
+        <v>45.99</v>
       </c>
     </row>
     <row r="125">
@@ -2931,19 +2931,19 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>9.18</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="C125" t="n">
-        <v>21.61</v>
+        <v>21.8</v>
       </c>
       <c r="D125" t="n">
-        <v>49.03</v>
+        <v>49.47</v>
       </c>
       <c r="E125" t="n">
-        <v>29.39</v>
+        <v>31.02</v>
       </c>
       <c r="F125" t="n">
-        <v>48.46</v>
+        <v>45.98</v>
       </c>
     </row>
     <row r="126">
@@ -2951,19 +2951,19 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>9.17</v>
+        <v>8.35</v>
       </c>
       <c r="C126" t="n">
-        <v>21.61</v>
+        <v>21.8</v>
       </c>
       <c r="D126" t="n">
-        <v>49.03</v>
+        <v>49.48</v>
       </c>
       <c r="E126" t="n">
-        <v>29.37</v>
+        <v>31.01</v>
       </c>
       <c r="F126" t="n">
-        <v>48.41</v>
+        <v>45.96</v>
       </c>
     </row>
     <row r="127">
@@ -2971,19 +2971,19 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>9.17</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="C127" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="D127" t="n">
-        <v>49.03</v>
+        <v>49.47</v>
       </c>
       <c r="E127" t="n">
-        <v>29.37</v>
+        <v>31.03</v>
       </c>
       <c r="F127" t="n">
-        <v>48.4</v>
+        <v>45.99</v>
       </c>
     </row>
     <row r="128">
@@ -2991,19 +2991,19 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>9.18</v>
+        <v>8.35</v>
       </c>
       <c r="C128" t="n">
-        <v>21.61</v>
+        <v>21.8</v>
       </c>
       <c r="D128" t="n">
-        <v>49.03</v>
+        <v>49.48</v>
       </c>
       <c r="E128" t="n">
-        <v>29.39</v>
+        <v>31.01</v>
       </c>
       <c r="F128" t="n">
-        <v>48.45</v>
+        <v>45.95</v>
       </c>
     </row>
     <row r="129">
@@ -3011,19 +3011,19 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>9.17</v>
+        <v>8.35</v>
       </c>
       <c r="C129" t="n">
-        <v>21.61</v>
+        <v>21.8</v>
       </c>
       <c r="D129" t="n">
-        <v>49.03</v>
+        <v>49.47</v>
       </c>
       <c r="E129" t="n">
-        <v>29.38</v>
+        <v>31.02</v>
       </c>
       <c r="F129" t="n">
-        <v>48.42</v>
+        <v>45.97</v>
       </c>
     </row>
     <row r="130">
@@ -3031,19 +3031,19 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>9.17</v>
+        <v>8.35</v>
       </c>
       <c r="C130" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="D130" t="n">
-        <v>49.03</v>
+        <v>49.47</v>
       </c>
       <c r="E130" t="n">
-        <v>29.36</v>
+        <v>31.02</v>
       </c>
       <c r="F130" t="n">
-        <v>48.39</v>
+        <v>45.97</v>
       </c>
     </row>
     <row r="131">
@@ -3051,19 +3051,19 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>9.17</v>
+        <v>8.34</v>
       </c>
       <c r="C131" t="n">
-        <v>21.61</v>
+        <v>21.79</v>
       </c>
       <c r="D131" t="n">
-        <v>49.03</v>
+        <v>49.48</v>
       </c>
       <c r="E131" t="n">
-        <v>29.38</v>
+        <v>31</v>
       </c>
       <c r="F131" t="n">
-        <v>48.43</v>
+        <v>45.92</v>
       </c>
     </row>
     <row r="132">
@@ -3071,19 +3071,19 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>9.16</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="C132" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="D132" t="n">
-        <v>49.03</v>
+        <v>49.47</v>
       </c>
       <c r="E132" t="n">
-        <v>29.36</v>
+        <v>31.03</v>
       </c>
       <c r="F132" t="n">
-        <v>48.37</v>
+        <v>45.99</v>
       </c>
     </row>
     <row r="133">
@@ -3091,19 +3091,19 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>9.17</v>
+        <v>8.35</v>
       </c>
       <c r="C133" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="D133" t="n">
-        <v>49.03</v>
+        <v>49.48</v>
       </c>
       <c r="E133" t="n">
-        <v>29.36</v>
+        <v>31.01</v>
       </c>
       <c r="F133" t="n">
-        <v>48.39</v>
+        <v>45.95</v>
       </c>
     </row>
     <row r="134">
@@ -3111,19 +3111,19 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>9.17</v>
+        <v>8.35</v>
       </c>
       <c r="C134" t="n">
-        <v>21.61</v>
+        <v>21.8</v>
       </c>
       <c r="D134" t="n">
-        <v>49.03</v>
+        <v>49.48</v>
       </c>
       <c r="E134" t="n">
-        <v>29.38</v>
+        <v>31.01</v>
       </c>
       <c r="F134" t="n">
-        <v>48.43</v>
+        <v>45.95</v>
       </c>
     </row>
     <row r="135">
@@ -3131,19 +3131,19 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>9.16</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="C135" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="D135" t="n">
-        <v>49.03</v>
+        <v>49.47</v>
       </c>
       <c r="E135" t="n">
-        <v>29.36</v>
+        <v>31.04</v>
       </c>
       <c r="F135" t="n">
-        <v>48.37</v>
+        <v>46.03</v>
       </c>
     </row>
     <row r="136">
@@ -3151,19 +3151,19 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>9.17</v>
+        <v>8.35</v>
       </c>
       <c r="C136" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="D136" t="n">
-        <v>49.03</v>
+        <v>49.48</v>
       </c>
       <c r="E136" t="n">
-        <v>29.36</v>
+        <v>31.01</v>
       </c>
       <c r="F136" t="n">
-        <v>48.39</v>
+        <v>45.95</v>
       </c>
     </row>
     <row r="137">
@@ -3171,19 +3171,19 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>9.17</v>
+        <v>8.35</v>
       </c>
       <c r="C137" t="n">
-        <v>21.61</v>
+        <v>21.8</v>
       </c>
       <c r="D137" t="n">
-        <v>49.03</v>
+        <v>49.47</v>
       </c>
       <c r="E137" t="n">
-        <v>29.38</v>
+        <v>31.02</v>
       </c>
       <c r="F137" t="n">
-        <v>48.43</v>
+        <v>45.98</v>
       </c>
     </row>
     <row r="138">
@@ -3191,19 +3191,19 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>9.16</v>
+        <v>8.35</v>
       </c>
       <c r="C138" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="D138" t="n">
-        <v>49.03</v>
+        <v>49.48</v>
       </c>
       <c r="E138" t="n">
-        <v>29.36</v>
+        <v>31.01</v>
       </c>
       <c r="F138" t="n">
-        <v>48.37</v>
+        <v>45.95</v>
       </c>
     </row>
     <row r="139">
@@ -3211,19 +3211,19 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>9.16</v>
+        <v>8.35</v>
       </c>
       <c r="C139" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="D139" t="n">
-        <v>49.03</v>
+        <v>49.48</v>
       </c>
       <c r="E139" t="n">
-        <v>29.35</v>
+        <v>31.01</v>
       </c>
       <c r="F139" t="n">
-        <v>48.36</v>
+        <v>45.94</v>
       </c>
     </row>
     <row r="140">
@@ -3231,19 +3231,19 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>9.18</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="C140" t="n">
-        <v>21.61</v>
+        <v>21.8</v>
       </c>
       <c r="D140" t="n">
-        <v>49.03</v>
+        <v>49.47</v>
       </c>
       <c r="E140" t="n">
-        <v>29.39</v>
+        <v>31.02</v>
       </c>
       <c r="F140" t="n">
-        <v>48.45</v>
+        <v>45.98</v>
       </c>
     </row>
     <row r="141">
@@ -3251,19 +3251,19 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>9.17</v>
+        <v>8.34</v>
       </c>
       <c r="C141" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="D141" t="n">
-        <v>49.03</v>
+        <v>49.48</v>
       </c>
       <c r="E141" t="n">
-        <v>29.36</v>
+        <v>31</v>
       </c>
       <c r="F141" t="n">
-        <v>48.39</v>
+        <v>45.93</v>
       </c>
     </row>
     <row r="142">
@@ -3271,19 +3271,19 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>9.17</v>
+        <v>8.35</v>
       </c>
       <c r="C142" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="D142" t="n">
-        <v>49.03</v>
+        <v>49.48</v>
       </c>
       <c r="E142" t="n">
-        <v>29.36</v>
+        <v>31</v>
       </c>
       <c r="F142" t="n">
-        <v>48.39</v>
+        <v>45.94</v>
       </c>
     </row>
     <row r="143">
@@ -3291,19 +3291,19 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>9.18</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="C143" t="n">
-        <v>21.61</v>
+        <v>21.8</v>
       </c>
       <c r="D143" t="n">
-        <v>49.03</v>
+        <v>49.47</v>
       </c>
       <c r="E143" t="n">
-        <v>29.39</v>
+        <v>31.03</v>
       </c>
       <c r="F143" t="n">
-        <v>48.47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="144">
@@ -3311,19 +3311,19 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>9.17</v>
+        <v>8.35</v>
       </c>
       <c r="C144" t="n">
-        <v>21.61</v>
+        <v>21.8</v>
       </c>
       <c r="D144" t="n">
-        <v>49.03</v>
+        <v>49.48</v>
       </c>
       <c r="E144" t="n">
-        <v>29.38</v>
+        <v>31.01</v>
       </c>
       <c r="F144" t="n">
-        <v>48.42</v>
+        <v>45.95</v>
       </c>
     </row>
     <row r="145">
@@ -3331,19 +3331,19 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>9.17</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="C145" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="D145" t="n">
-        <v>49.03</v>
+        <v>49.47</v>
       </c>
       <c r="E145" t="n">
-        <v>29.37</v>
+        <v>31.03</v>
       </c>
       <c r="F145" t="n">
-        <v>48.4</v>
+        <v>45.99</v>
       </c>
     </row>
     <row r="146">
@@ -3351,19 +3351,19 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>9.18</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="C146" t="n">
-        <v>21.61</v>
+        <v>21.8</v>
       </c>
       <c r="D146" t="n">
-        <v>49.03</v>
+        <v>49.47</v>
       </c>
       <c r="E146" t="n">
-        <v>29.38</v>
+        <v>31.03</v>
       </c>
       <c r="F146" t="n">
-        <v>48.44</v>
+        <v>45.99</v>
       </c>
     </row>
     <row r="147">
@@ -3371,19 +3371,19 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>9.17</v>
+        <v>8.35</v>
       </c>
       <c r="C147" t="n">
-        <v>21.61</v>
+        <v>21.8</v>
       </c>
       <c r="D147" t="n">
-        <v>49.03</v>
+        <v>49.48</v>
       </c>
       <c r="E147" t="n">
-        <v>29.37</v>
+        <v>31.01</v>
       </c>
       <c r="F147" t="n">
-        <v>48.41</v>
+        <v>45.95</v>
       </c>
     </row>
     <row r="148">
@@ -3391,19 +3391,19 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>9.17</v>
+        <v>8.35</v>
       </c>
       <c r="C148" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="D148" t="n">
-        <v>49.03</v>
+        <v>49.47</v>
       </c>
       <c r="E148" t="n">
-        <v>29.37</v>
+        <v>31.02</v>
       </c>
       <c r="F148" t="n">
-        <v>48.4</v>
+        <v>45.98</v>
       </c>
     </row>
     <row r="149">
@@ -3411,19 +3411,19 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>9.17</v>
+        <v>8.34</v>
       </c>
       <c r="C149" t="n">
-        <v>21.61</v>
+        <v>21.79</v>
       </c>
       <c r="D149" t="n">
-        <v>49.03</v>
+        <v>49.48</v>
       </c>
       <c r="E149" t="n">
-        <v>29.38</v>
+        <v>31</v>
       </c>
       <c r="F149" t="n">
-        <v>48.44</v>
+        <v>45.92</v>
       </c>
     </row>
     <row r="150">
@@ -3431,19 +3431,19 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>9.17</v>
+        <v>8.35</v>
       </c>
       <c r="C150" t="n">
-        <v>21.61</v>
+        <v>21.8</v>
       </c>
       <c r="D150" t="n">
-        <v>49.03</v>
+        <v>49.47</v>
       </c>
       <c r="E150" t="n">
-        <v>29.37</v>
+        <v>31.02</v>
       </c>
       <c r="F150" t="n">
-        <v>48.41</v>
+        <v>45.97</v>
       </c>
     </row>
     <row r="151">
@@ -3451,19 +3451,19 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>9.17</v>
+        <v>8.35</v>
       </c>
       <c r="C151" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="D151" t="n">
-        <v>49.03</v>
+        <v>49.47</v>
       </c>
       <c r="E151" t="n">
-        <v>29.37</v>
+        <v>31.01</v>
       </c>
       <c r="F151" t="n">
-        <v>48.4</v>
+        <v>45.96</v>
       </c>
     </row>
     <row r="152">
@@ -3471,19 +3471,19 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>9.18</v>
+        <v>8.34</v>
       </c>
       <c r="C152" t="n">
-        <v>21.61</v>
+        <v>21.79</v>
       </c>
       <c r="D152" t="n">
-        <v>49.03</v>
+        <v>49.48</v>
       </c>
       <c r="E152" t="n">
-        <v>29.38</v>
+        <v>31</v>
       </c>
       <c r="F152" t="n">
-        <v>48.44</v>
+        <v>45.92</v>
       </c>
     </row>
     <row r="153">
@@ -3491,19 +3491,19 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>9.17</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="C153" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="D153" t="n">
-        <v>49.03</v>
+        <v>49.47</v>
       </c>
       <c r="E153" t="n">
-        <v>29.36</v>
+        <v>31.03</v>
       </c>
       <c r="F153" t="n">
-        <v>48.39</v>
+        <v>45.99</v>
       </c>
     </row>
     <row r="154">
@@ -3511,19 +3511,19 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>9.16</v>
+        <v>8.35</v>
       </c>
       <c r="C154" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="D154" t="n">
-        <v>49.03</v>
+        <v>49.48</v>
       </c>
       <c r="E154" t="n">
-        <v>29.36</v>
+        <v>31.01</v>
       </c>
       <c r="F154" t="n">
-        <v>48.38</v>
+        <v>45.95</v>
       </c>
     </row>
     <row r="155">
@@ -3531,19 +3531,19 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>9.17</v>
+        <v>8.35</v>
       </c>
       <c r="C155" t="n">
-        <v>21.61</v>
+        <v>21.8</v>
       </c>
       <c r="D155" t="n">
-        <v>49.03</v>
+        <v>49.48</v>
       </c>
       <c r="E155" t="n">
-        <v>29.38</v>
+        <v>31.01</v>
       </c>
       <c r="F155" t="n">
-        <v>48.43</v>
+        <v>45.95</v>
       </c>
     </row>
     <row r="156">
@@ -3551,19 +3551,19 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>9.16</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="C156" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="D156" t="n">
-        <v>49.03</v>
+        <v>49.47</v>
       </c>
       <c r="E156" t="n">
-        <v>29.36</v>
+        <v>31.04</v>
       </c>
       <c r="F156" t="n">
-        <v>48.38</v>
+        <v>46.03</v>
       </c>
     </row>
     <row r="157">
@@ -3571,19 +3571,19 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>9.16</v>
+        <v>8.35</v>
       </c>
       <c r="C157" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="D157" t="n">
-        <v>49.03</v>
+        <v>49.48</v>
       </c>
       <c r="E157" t="n">
-        <v>29.35</v>
+        <v>31.01</v>
       </c>
       <c r="F157" t="n">
-        <v>48.37</v>
+        <v>45.95</v>
       </c>
     </row>
     <row r="158">
@@ -3591,19 +3591,19 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>9.18</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="C158" t="n">
-        <v>21.61</v>
+        <v>21.8</v>
       </c>
       <c r="D158" t="n">
-        <v>49.03</v>
+        <v>49.47</v>
       </c>
       <c r="E158" t="n">
-        <v>29.39</v>
+        <v>31.02</v>
       </c>
       <c r="F158" t="n">
-        <v>48.46</v>
+        <v>45.98</v>
       </c>
     </row>
     <row r="159">
@@ -3611,19 +3611,19 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>9.17</v>
+        <v>8.35</v>
       </c>
       <c r="C159" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="D159" t="n">
-        <v>49.03</v>
+        <v>49.47</v>
       </c>
       <c r="E159" t="n">
-        <v>29.37</v>
+        <v>31.02</v>
       </c>
       <c r="F159" t="n">
-        <v>48.4</v>
+        <v>45.96</v>
       </c>
     </row>
     <row r="160">
@@ -3631,19 +3631,19 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>9.17</v>
+        <v>8.34</v>
       </c>
       <c r="C160" t="n">
-        <v>21.6</v>
+        <v>21.79</v>
       </c>
       <c r="D160" t="n">
-        <v>49.03</v>
+        <v>49.48</v>
       </c>
       <c r="E160" t="n">
-        <v>29.37</v>
+        <v>31</v>
       </c>
       <c r="F160" t="n">
-        <v>48.4</v>
+        <v>45.92</v>
       </c>
     </row>
     <row r="161">
@@ -3651,19 +3651,19 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>9.18</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="C161" t="n">
-        <v>21.61</v>
+        <v>21.8</v>
       </c>
       <c r="D161" t="n">
-        <v>49.03</v>
+        <v>49.47</v>
       </c>
       <c r="E161" t="n">
-        <v>29.39</v>
+        <v>31.03</v>
       </c>
       <c r="F161" t="n">
-        <v>48.46</v>
+        <v>46</v>
       </c>
     </row>
     <row r="162">
@@ -3671,19 +3671,19 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>9.17</v>
+        <v>8.35</v>
       </c>
       <c r="C162" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="D162" t="n">
-        <v>49.03</v>
+        <v>49.48</v>
       </c>
       <c r="E162" t="n">
-        <v>29.37</v>
+        <v>31.01</v>
       </c>
       <c r="F162" t="n">
-        <v>48.4</v>
+        <v>45.94</v>
       </c>
     </row>
     <row r="163">
@@ -3691,19 +3691,19 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>9.17</v>
+        <v>8.35</v>
       </c>
       <c r="C163" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="D163" t="n">
-        <v>49.03</v>
+        <v>49.48</v>
       </c>
       <c r="E163" t="n">
-        <v>29.37</v>
+        <v>31.01</v>
       </c>
       <c r="F163" t="n">
-        <v>48.4</v>
+        <v>45.96</v>
       </c>
     </row>
     <row r="164">
@@ -3711,19 +3711,19 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>9.18</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="C164" t="n">
-        <v>21.61</v>
+        <v>21.8</v>
       </c>
       <c r="D164" t="n">
-        <v>49.03</v>
+        <v>49.47</v>
       </c>
       <c r="E164" t="n">
-        <v>29.39</v>
+        <v>31.02</v>
       </c>
       <c r="F164" t="n">
-        <v>48.46</v>
+        <v>45.98</v>
       </c>
     </row>
     <row r="165">
@@ -3731,19 +3731,19 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>9.17</v>
+        <v>8.35</v>
       </c>
       <c r="C165" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="D165" t="n">
-        <v>49.03</v>
+        <v>49.48</v>
       </c>
       <c r="E165" t="n">
-        <v>29.37</v>
+        <v>31.01</v>
       </c>
       <c r="F165" t="n">
-        <v>48.4</v>
+        <v>45.94</v>
       </c>
     </row>
     <row r="166">
@@ -3751,19 +3751,19 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>9.17</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="C166" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="D166" t="n">
-        <v>49.03</v>
+        <v>49.47</v>
       </c>
       <c r="E166" t="n">
-        <v>29.37</v>
+        <v>31.03</v>
       </c>
       <c r="F166" t="n">
-        <v>48.4</v>
+        <v>45.99</v>
       </c>
     </row>
     <row r="167">
@@ -3771,19 +3771,19 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>9.18</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="C167" t="n">
-        <v>21.61</v>
+        <v>21.8</v>
       </c>
       <c r="D167" t="n">
-        <v>49.03</v>
+        <v>49.47</v>
       </c>
       <c r="E167" t="n">
-        <v>29.39</v>
+        <v>31.03</v>
       </c>
       <c r="F167" t="n">
-        <v>48.46</v>
+        <v>45.99</v>
       </c>
     </row>
     <row r="168">
@@ -3791,19 +3791,19 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>9.17</v>
+        <v>8.35</v>
       </c>
       <c r="C168" t="n">
-        <v>21.61</v>
+        <v>21.8</v>
       </c>
       <c r="D168" t="n">
-        <v>49.03</v>
+        <v>49.48</v>
       </c>
       <c r="E168" t="n">
-        <v>29.37</v>
+        <v>31.01</v>
       </c>
       <c r="F168" t="n">
-        <v>48.41</v>
+        <v>45.96</v>
       </c>
     </row>
     <row r="169">
@@ -3811,19 +3811,19 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>9.17</v>
+        <v>8.35</v>
       </c>
       <c r="C169" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="D169" t="n">
-        <v>49.03</v>
+        <v>49.47</v>
       </c>
       <c r="E169" t="n">
-        <v>29.37</v>
+        <v>31.02</v>
       </c>
       <c r="F169" t="n">
-        <v>48.4</v>
+        <v>45.98</v>
       </c>
     </row>
     <row r="170">
@@ -3831,19 +3831,19 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>9.17</v>
+        <v>8.34</v>
       </c>
       <c r="C170" t="n">
-        <v>21.61</v>
+        <v>21.79</v>
       </c>
       <c r="D170" t="n">
-        <v>49.03</v>
+        <v>49.48</v>
       </c>
       <c r="E170" t="n">
-        <v>29.38</v>
+        <v>31</v>
       </c>
       <c r="F170" t="n">
-        <v>48.43</v>
+        <v>45.92</v>
       </c>
     </row>
     <row r="171">
@@ -3851,19 +3851,19 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>9.16</v>
+        <v>8.35</v>
       </c>
       <c r="C171" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="D171" t="n">
-        <v>49.03</v>
+        <v>49.48</v>
       </c>
       <c r="E171" t="n">
-        <v>29.36</v>
+        <v>31.01</v>
       </c>
       <c r="F171" t="n">
-        <v>48.37</v>
+        <v>45.95</v>
       </c>
     </row>
     <row r="172">
@@ -3871,19 +3871,19 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>9.16</v>
+        <v>8.35</v>
       </c>
       <c r="C172" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="D172" t="n">
-        <v>49.03</v>
+        <v>49.47</v>
       </c>
       <c r="E172" t="n">
-        <v>29.36</v>
+        <v>31.02</v>
       </c>
       <c r="F172" t="n">
-        <v>48.37</v>
+        <v>45.98</v>
       </c>
     </row>
     <row r="173">
@@ -3891,19 +3891,19 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>9.18</v>
+        <v>8.35</v>
       </c>
       <c r="C173" t="n">
-        <v>21.61</v>
+        <v>21.8</v>
       </c>
       <c r="D173" t="n">
-        <v>49.03</v>
+        <v>49.48</v>
       </c>
       <c r="E173" t="n">
-        <v>29.38</v>
+        <v>31.01</v>
       </c>
       <c r="F173" t="n">
-        <v>48.44</v>
+        <v>45.95</v>
       </c>
     </row>
     <row r="174">
@@ -3911,19 +3911,19 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>9.16</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="C174" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="D174" t="n">
-        <v>49.03</v>
+        <v>49.47</v>
       </c>
       <c r="E174" t="n">
-        <v>29.36</v>
+        <v>31.03</v>
       </c>
       <c r="F174" t="n">
-        <v>48.38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="175">
@@ -3931,19 +3931,19 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>9.16</v>
+        <v>8.35</v>
       </c>
       <c r="C175" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="D175" t="n">
-        <v>49.03</v>
+        <v>49.48</v>
       </c>
       <c r="E175" t="n">
-        <v>29.36</v>
+        <v>31.01</v>
       </c>
       <c r="F175" t="n">
-        <v>48.38</v>
+        <v>45.96</v>
       </c>
     </row>
     <row r="176">
@@ -3951,19 +3951,19 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>9.18</v>
+        <v>8.35</v>
       </c>
       <c r="C176" t="n">
-        <v>21.61</v>
+        <v>21.8</v>
       </c>
       <c r="D176" t="n">
-        <v>49.03</v>
+        <v>49.47</v>
       </c>
       <c r="E176" t="n">
-        <v>29.38</v>
+        <v>31.02</v>
       </c>
       <c r="F176" t="n">
-        <v>48.44</v>
+        <v>45.96</v>
       </c>
     </row>
     <row r="177">
@@ -3971,19 +3971,19 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>9.16</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="C177" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="D177" t="n">
-        <v>49.03</v>
+        <v>49.47</v>
       </c>
       <c r="E177" t="n">
-        <v>29.36</v>
+        <v>31.04</v>
       </c>
       <c r="F177" t="n">
-        <v>48.38</v>
+        <v>46.01</v>
       </c>
     </row>
     <row r="178">
@@ -3991,19 +3991,19 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>9.16</v>
+        <v>8.35</v>
       </c>
       <c r="C178" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="D178" t="n">
-        <v>49.03</v>
+        <v>49.48</v>
       </c>
       <c r="E178" t="n">
-        <v>29.36</v>
+        <v>31.01</v>
       </c>
       <c r="F178" t="n">
-        <v>48.39</v>
+        <v>45.95</v>
       </c>
     </row>
     <row r="179">
@@ -4011,19 +4011,19 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>9.18</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="C179" t="n">
-        <v>21.61</v>
+        <v>21.8</v>
       </c>
       <c r="D179" t="n">
-        <v>49.03</v>
+        <v>49.47</v>
       </c>
       <c r="E179" t="n">
-        <v>29.4</v>
+        <v>31.02</v>
       </c>
       <c r="F179" t="n">
-        <v>48.47</v>
+        <v>45.98</v>
       </c>
     </row>
     <row r="180">
@@ -4031,19 +4031,19 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>9.17</v>
+        <v>8.35</v>
       </c>
       <c r="C180" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="D180" t="n">
-        <v>49.03</v>
+        <v>49.47</v>
       </c>
       <c r="E180" t="n">
-        <v>29.37</v>
+        <v>31.02</v>
       </c>
       <c r="F180" t="n">
-        <v>48.4</v>
+        <v>45.98</v>
       </c>
     </row>
     <row r="181">
@@ -4051,19 +4051,19 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>9.17</v>
+        <v>8.35</v>
       </c>
       <c r="C181" t="n">
-        <v>21.61</v>
+        <v>21.8</v>
       </c>
       <c r="D181" t="n">
-        <v>49.03</v>
+        <v>49.48</v>
       </c>
       <c r="E181" t="n">
-        <v>29.37</v>
+        <v>31</v>
       </c>
       <c r="F181" t="n">
-        <v>48.41</v>
+        <v>45.94</v>
       </c>
     </row>
     <row r="182">
@@ -4071,19 +4071,19 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>9.18</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="C182" t="n">
-        <v>21.61</v>
+        <v>21.8</v>
       </c>
       <c r="D182" t="n">
-        <v>49.03</v>
+        <v>49.47</v>
       </c>
       <c r="E182" t="n">
-        <v>29.39</v>
+        <v>31.03</v>
       </c>
       <c r="F182" t="n">
-        <v>48.45</v>
+        <v>45.99</v>
       </c>
     </row>
     <row r="183">
@@ -4091,19 +4091,19 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>9.17</v>
+        <v>8.34</v>
       </c>
       <c r="C183" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="D183" t="n">
-        <v>49.03</v>
+        <v>49.48</v>
       </c>
       <c r="E183" t="n">
-        <v>29.37</v>
+        <v>31</v>
       </c>
       <c r="F183" t="n">
-        <v>48.4</v>
+        <v>45.93</v>
       </c>
     </row>
     <row r="184">
@@ -4111,19 +4111,19 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>9.17</v>
+        <v>8.35</v>
       </c>
       <c r="C184" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="D184" t="n">
-        <v>49.03</v>
+        <v>49.48</v>
       </c>
       <c r="E184" t="n">
-        <v>29.37</v>
+        <v>31.01</v>
       </c>
       <c r="F184" t="n">
-        <v>48.4</v>
+        <v>45.95</v>
       </c>
     </row>
     <row r="185">
@@ -4131,19 +4131,19 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>9.17</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="C185" t="n">
-        <v>21.61</v>
+        <v>21.8</v>
       </c>
       <c r="D185" t="n">
-        <v>49.03</v>
+        <v>49.47</v>
       </c>
       <c r="E185" t="n">
-        <v>29.38</v>
+        <v>31.04</v>
       </c>
       <c r="F185" t="n">
-        <v>48.42</v>
+        <v>46.02</v>
       </c>
     </row>
     <row r="186">
@@ -4151,19 +4151,19 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>9.16</v>
+        <v>8.35</v>
       </c>
       <c r="C186" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="D186" t="n">
-        <v>49.03</v>
+        <v>49.48</v>
       </c>
       <c r="E186" t="n">
-        <v>29.35</v>
+        <v>31.01</v>
       </c>
       <c r="F186" t="n">
-        <v>48.36</v>
+        <v>45.95</v>
       </c>
     </row>
     <row r="187">
@@ -4171,19 +4171,19 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>9.17</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="C187" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="D187" t="n">
-        <v>49.03</v>
+        <v>49.47</v>
       </c>
       <c r="E187" t="n">
-        <v>29.37</v>
+        <v>31.03</v>
       </c>
       <c r="F187" t="n">
-        <v>48.4</v>
+        <v>45.99</v>
       </c>
     </row>
     <row r="188">
@@ -4191,19 +4191,19 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>9.17</v>
+        <v>8.35</v>
       </c>
       <c r="C188" t="n">
-        <v>21.61</v>
+        <v>21.8</v>
       </c>
       <c r="D188" t="n">
-        <v>49.03</v>
+        <v>49.47</v>
       </c>
       <c r="E188" t="n">
-        <v>29.38</v>
+        <v>31.02</v>
       </c>
       <c r="F188" t="n">
-        <v>48.42</v>
+        <v>45.98</v>
       </c>
     </row>
     <row r="189">
@@ -4211,19 +4211,19 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>9.16</v>
+        <v>8.35</v>
       </c>
       <c r="C189" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="D189" t="n">
-        <v>49.03</v>
+        <v>49.48</v>
       </c>
       <c r="E189" t="n">
-        <v>29.35</v>
+        <v>31.01</v>
       </c>
       <c r="F189" t="n">
-        <v>48.37</v>
+        <v>45.96</v>
       </c>
     </row>
     <row r="190">
@@ -4231,19 +4231,19 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>9.17</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="C190" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="D190" t="n">
-        <v>49.03</v>
+        <v>49.47</v>
       </c>
       <c r="E190" t="n">
-        <v>29.37</v>
+        <v>31.02</v>
       </c>
       <c r="F190" t="n">
-        <v>48.4</v>
+        <v>45.98</v>
       </c>
     </row>
     <row r="191">
@@ -4251,19 +4251,19 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>9.17</v>
+        <v>8.34</v>
       </c>
       <c r="C191" t="n">
-        <v>21.61</v>
+        <v>21.79</v>
       </c>
       <c r="D191" t="n">
-        <v>49.03</v>
+        <v>49.48</v>
       </c>
       <c r="E191" t="n">
-        <v>29.38</v>
+        <v>31</v>
       </c>
       <c r="F191" t="n">
-        <v>48.42</v>
+        <v>45.93</v>
       </c>
     </row>
     <row r="192">
@@ -4271,19 +4271,19 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>9.16</v>
+        <v>8.35</v>
       </c>
       <c r="C192" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="D192" t="n">
-        <v>49.03</v>
+        <v>49.47</v>
       </c>
       <c r="E192" t="n">
-        <v>29.36</v>
+        <v>31.02</v>
       </c>
       <c r="F192" t="n">
-        <v>48.37</v>
+        <v>45.97</v>
       </c>
     </row>
     <row r="193">
@@ -4291,19 +4291,19 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>9.16</v>
+        <v>8.35</v>
       </c>
       <c r="C193" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="D193" t="n">
-        <v>49.03</v>
+        <v>49.47</v>
       </c>
       <c r="E193" t="n">
-        <v>29.36</v>
+        <v>31.02</v>
       </c>
       <c r="F193" t="n">
-        <v>48.37</v>
+        <v>45.96</v>
       </c>
     </row>
     <row r="194">
@@ -4311,19 +4311,19 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>9.18</v>
+        <v>8.35</v>
       </c>
       <c r="C194" t="n">
-        <v>21.61</v>
+        <v>21.8</v>
       </c>
       <c r="D194" t="n">
-        <v>49.03</v>
+        <v>49.48</v>
       </c>
       <c r="E194" t="n">
-        <v>29.39</v>
+        <v>31.01</v>
       </c>
       <c r="F194" t="n">
-        <v>48.46</v>
+        <v>45.94</v>
       </c>
     </row>
     <row r="195">
@@ -4331,19 +4331,19 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>9.17</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="C195" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="D195" t="n">
-        <v>49.03</v>
+        <v>49.47</v>
       </c>
       <c r="E195" t="n">
-        <v>29.36</v>
+        <v>31.03</v>
       </c>
       <c r="F195" t="n">
-        <v>48.39</v>
+        <v>46.01</v>
       </c>
     </row>
     <row r="196">
@@ -4351,19 +4351,19 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>9.17</v>
+        <v>8.35</v>
       </c>
       <c r="C196" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="D196" t="n">
-        <v>49.03</v>
+        <v>49.47</v>
       </c>
       <c r="E196" t="n">
-        <v>29.37</v>
+        <v>31.02</v>
       </c>
       <c r="F196" t="n">
-        <v>48.4</v>
+        <v>45.97</v>
       </c>
     </row>
     <row r="197">
@@ -4371,19 +4371,19 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>9.18</v>
+        <v>8.35</v>
       </c>
       <c r="C197" t="n">
-        <v>21.61</v>
+        <v>21.8</v>
       </c>
       <c r="D197" t="n">
-        <v>49.03</v>
+        <v>49.47</v>
       </c>
       <c r="E197" t="n">
-        <v>29.4</v>
+        <v>31.02</v>
       </c>
       <c r="F197" t="n">
-        <v>48.48</v>
+        <v>45.97</v>
       </c>
     </row>
     <row r="198">
@@ -4391,19 +4391,19 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>9.17</v>
+        <v>8.35</v>
       </c>
       <c r="C198" t="n">
-        <v>21.61</v>
+        <v>21.8</v>
       </c>
       <c r="D198" t="n">
-        <v>49.03</v>
+        <v>49.47</v>
       </c>
       <c r="E198" t="n">
-        <v>29.37</v>
+        <v>31.02</v>
       </c>
       <c r="F198" t="n">
-        <v>48.41</v>
+        <v>45.97</v>
       </c>
     </row>
     <row r="199">
@@ -4411,19 +4411,19 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>9.17</v>
+        <v>8.35</v>
       </c>
       <c r="C199" t="n">
-        <v>21.61</v>
+        <v>21.8</v>
       </c>
       <c r="D199" t="n">
-        <v>49.03</v>
+        <v>49.48</v>
       </c>
       <c r="E199" t="n">
-        <v>29.37</v>
+        <v>31.01</v>
       </c>
       <c r="F199" t="n">
-        <v>48.41</v>
+        <v>45.95</v>
       </c>
     </row>
     <row r="200">
@@ -4431,19 +4431,19 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>9.17</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="C200" t="n">
-        <v>21.61</v>
+        <v>21.8</v>
       </c>
       <c r="D200" t="n">
-        <v>49.03</v>
+        <v>49.47</v>
       </c>
       <c r="E200" t="n">
-        <v>29.38</v>
+        <v>31.02</v>
       </c>
       <c r="F200" t="n">
-        <v>48.43</v>
+        <v>45.98</v>
       </c>
     </row>
     <row r="201">
@@ -4451,19 +4451,19 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>9.17</v>
+        <v>8.35</v>
       </c>
       <c r="C201" t="n">
-        <v>21.61</v>
+        <v>21.8</v>
       </c>
       <c r="D201" t="n">
-        <v>49.03</v>
+        <v>49.47</v>
       </c>
       <c r="E201" t="n">
-        <v>29.38</v>
+        <v>31.02</v>
       </c>
       <c r="F201" t="n">
-        <v>48.43</v>
+        <v>45.97</v>
       </c>
     </row>
   </sheetData>
